--- a/data/MarijuanaApplicants - test data list 2.xlsx
+++ b/data/MarijuanaApplicants - test data list 2.xlsx
@@ -4602,8 +4602,8 @@
   <dimension ref="A1:D666"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A632" sqref="A632"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/MarijuanaApplicants - test data list 2.xlsx
+++ b/data/MarijuanaApplicants - test data list 2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\CS410-Project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="1785">
   <si>
     <t>WA</t>
   </si>
@@ -4513,9 +4518,6 @@
     <t>ELMWAY</t>
   </si>
   <si>
-    <t>BL</t>
-  </si>
-  <si>
     <t>820A</t>
   </si>
   <si>
@@ -5026,9 +5028,6 @@
     <t>STATE 28</t>
   </si>
   <si>
-    <t>U.S. 12</t>
-  </si>
-  <si>
     <t>NESS' CORNER</t>
   </si>
   <si>
@@ -5047,9 +5046,6 @@
     <t>LAKE CITY</t>
   </si>
   <si>
-    <t>C103 &amp; C104</t>
-  </si>
-  <si>
     <t>WAITTS LAKE</t>
   </si>
   <si>
@@ -5095,9 +5091,6 @@
     <t>2200 TALLEY WAY STE A</t>
   </si>
   <si>
-    <t>C &amp; D</t>
-  </si>
-  <si>
     <t>FLOOR UNIT</t>
   </si>
   <si>
@@ -5125,9 +5118,6 @@
     <t>BEAVER VALLEY</t>
   </si>
   <si>
-    <t>J 102</t>
-  </si>
-  <si>
     <t>MAPLE GROVE</t>
   </si>
   <si>
@@ -5173,9 +5163,6 @@
     <t>STATE RT 3</t>
   </si>
   <si>
-    <t>ST. JOHNS</t>
-  </si>
-  <si>
     <t>OLD PACIFIC</t>
   </si>
   <si>
@@ -5263,9 +5250,6 @@
     <t>FIR ISLAND</t>
   </si>
   <si>
-    <t>1 &amp; 4</t>
-  </si>
-  <si>
     <t>22002 64TH AVE W STE 2A</t>
   </si>
   <si>
@@ -5314,9 +5298,6 @@
     <t>NOB HILL</t>
   </si>
   <si>
-    <t>B &amp; C</t>
-  </si>
-  <si>
     <t>PRESTON FALL CITY</t>
   </si>
   <si>
@@ -5378,6 +5359,24 @@
   </si>
   <si>
     <t>101A</t>
+  </si>
+  <si>
+    <t>U.S 12</t>
+  </si>
+  <si>
+    <t>C103 C104</t>
+  </si>
+  <si>
+    <t>C D</t>
+  </si>
+  <si>
+    <t>102 J</t>
+  </si>
+  <si>
+    <t>1 4</t>
+  </si>
+  <si>
+    <t>B C</t>
   </si>
 </sst>
 </file>
@@ -5408,7 +5407,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5419,12 +5418,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5455,7 +5448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
@@ -5464,10 +5457,6 @@
       <alignment vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5596,7 +5585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5631,7 +5620,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5843,8 +5832,8 @@
   <dimension ref="A1:L642"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+      <pane ySplit="1" topLeftCell="A623" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L575" sqref="L575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5928,7 +5917,7 @@
         <v>1380</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5954,7 +5943,7 @@
         <v>1381</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>1433</v>
@@ -6012,10 +6001,10 @@
         <v>1384</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6041,10 +6030,10 @@
         <v>1385</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6099,7 +6088,7 @@
         <v>261</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>1393</v>
@@ -6134,7 +6123,7 @@
         <v>1469</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6157,7 +6146,7 @@
         <v>3062</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="H10" s="3">
         <v>16</v>
@@ -6227,7 +6216,7 @@
         <v>1390</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>1433</v>
@@ -6259,10 +6248,10 @@
         <v>1392</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>1433</v>
@@ -6291,7 +6280,7 @@
         <v>36711</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1669</v>
+        <v>1779</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>1393</v>
@@ -6320,10 +6309,10 @@
         <v>1392</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>1399</v>
@@ -6378,7 +6367,7 @@
         <v>1394</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6401,7 +6390,7 @@
         <v>661</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>1469</v>
@@ -6430,10 +6419,10 @@
         <v>1395</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -6523,7 +6512,7 @@
         <v>1397</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -6578,7 +6567,7 @@
         <v>1628</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>1433</v>
@@ -6607,13 +6596,13 @@
         <v>1374</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>1401</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -6642,7 +6631,7 @@
         <v>1445</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>1403</v>
@@ -6671,7 +6660,7 @@
         <v>1404</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>1460</v>
@@ -6706,7 +6695,7 @@
         <v>1383</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>1433</v>
@@ -6738,7 +6727,7 @@
         <v>1408</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>1433</v>
@@ -6770,10 +6759,10 @@
         <v>1409</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>1433</v>
@@ -6808,7 +6797,7 @@
         <v>1469</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -6831,13 +6820,13 @@
         <v>15219</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>1411</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>1412</v>
@@ -6869,10 +6858,10 @@
         <v>1392</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -6898,10 +6887,10 @@
         <v>1392</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>1412</v>
@@ -6933,7 +6922,7 @@
         <v>1414</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -6956,7 +6945,7 @@
         <v>5209</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>1380</v>
@@ -6988,10 +6977,10 @@
         <v>1416</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>1433</v>
@@ -7005,7 +6994,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1224</v>
@@ -7020,7 +7009,7 @@
         <v>19315</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>1393</v>
@@ -7052,19 +7041,19 @@
         <v>10522</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>1676</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -7087,7 +7076,7 @@
         <v>10611</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H40" s="3">
         <v>99</v>
@@ -7122,7 +7111,7 @@
         <v>3082</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>1469</v>
@@ -7148,7 +7137,7 @@
         <v>1418</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>1469</v>
@@ -7177,10 +7166,10 @@
         <v>1385</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>1433</v>
@@ -7212,10 +7201,10 @@
         <v>1383</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>1419</v>
@@ -7247,7 +7236,7 @@
         <v>1393</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -7273,7 +7262,7 @@
         <v>1420</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -7328,7 +7317,7 @@
         <v>7550</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -7351,7 +7340,7 @@
         <v>3014</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>1469</v>
@@ -7415,7 +7404,7 @@
         <v>1425</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -7438,7 +7427,7 @@
         <v>7656</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>1412</v>
@@ -7473,7 +7462,7 @@
         <v>1426</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -7502,7 +7491,7 @@
         <v>1427</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -7554,13 +7543,13 @@
         <v>1325</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>1433</v>
@@ -7641,7 +7630,7 @@
         <v>29</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>1469</v>
@@ -7679,7 +7668,7 @@
         <v>1430</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -7705,7 +7694,7 @@
         <v>1431</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -7731,7 +7720,7 @@
         <v>1432</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>1412</v>
@@ -7763,7 +7752,7 @@
         <v>1460</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>1469</v>
@@ -7774,7 +7763,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1241</v>
@@ -7792,7 +7781,7 @@
         <v>1383</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>1467</v>
@@ -7827,10 +7816,10 @@
         <v>1383</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>1433</v>
@@ -7859,7 +7848,7 @@
         <v>19501</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -7885,10 +7874,10 @@
         <v>1434</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -7911,7 +7900,7 @@
         <v>5463</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>1469</v>
@@ -7940,7 +7929,7 @@
         <v>1383</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>1467</v>
@@ -7975,10 +7964,10 @@
         <v>1434</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -8004,7 +7993,7 @@
         <v>1435</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -8027,7 +8016,7 @@
         <v>841</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>1469</v>
@@ -8094,13 +8083,13 @@
         <v>1215</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>1412</v>
@@ -8132,7 +8121,7 @@
         <v>1437</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>1388</v>
@@ -8170,7 +8159,7 @@
         <v>1469</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>1433</v>
@@ -8199,7 +8188,7 @@
         <v>26207</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>1469</v>
@@ -8228,7 +8217,7 @@
         <v>1460</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -8303,7 +8292,7 @@
         <v>1717</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>1441</v>
@@ -8335,7 +8324,7 @@
         <v>1442</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>1412</v>
@@ -8381,7 +8370,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1252</v>
@@ -8431,10 +8420,10 @@
         <v>1447</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K85" s="3" t="s">
         <v>1433</v>
@@ -8466,16 +8455,16 @@
         <v>1447</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>1692</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -8501,10 +8490,10 @@
         <v>1448</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K87" s="3" t="s">
         <v>1433</v>
@@ -8539,7 +8528,7 @@
         <v>1449</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -8565,10 +8554,10 @@
         <v>1450</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -8594,7 +8583,7 @@
         <v>1249</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -8620,10 +8609,10 @@
         <v>1451</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -8649,7 +8638,7 @@
         <v>1452</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -8678,7 +8667,7 @@
         <v>1453</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -8744,7 +8733,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1201</v>
@@ -8762,13 +8751,13 @@
         <v>1455</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>1467</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>1456</v>
@@ -8832,7 +8821,7 @@
         <v>1432</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>1433</v>
@@ -8861,7 +8850,7 @@
         <v>9409</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H99" s="3">
         <v>99</v>
@@ -8896,13 +8885,13 @@
         <v>831</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>1457</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -8925,13 +8914,13 @@
         <v>938</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>1458</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>1433</v>
@@ -8960,13 +8949,13 @@
         <v>938</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>1458</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>1433</v>
@@ -9033,7 +9022,7 @@
         <v>1456</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -9056,10 +9045,10 @@
         <v>4710</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K105" s="3" t="s">
         <v>1412</v>
@@ -9123,13 +9112,13 @@
         <v>6620</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>1462</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>1433</v>
@@ -9193,7 +9182,7 @@
         <v>1464</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>1433</v>
@@ -9228,7 +9217,7 @@
         <v>1465</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -9254,10 +9243,10 @@
         <v>1385</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>1433</v>
@@ -9312,7 +9301,7 @@
         <v>17940</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -9320,7 +9309,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>1202</v>
@@ -9367,7 +9356,7 @@
         <v>3212</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>1469</v>
@@ -9396,7 +9385,7 @@
         <v>17905</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -9454,10 +9443,10 @@
         <v>1397</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -9486,7 +9475,7 @@
         <v>1440</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K119" s="3" t="s">
         <v>1433</v>
@@ -9515,10 +9504,10 @@
         <v>19129</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>1433</v>
@@ -9547,10 +9536,10 @@
         <v>19127</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>1479</v>
@@ -9582,7 +9571,7 @@
         <v>1468</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>1388</v>
@@ -9608,7 +9597,7 @@
         <v>9034</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>1469</v>
@@ -9634,13 +9623,13 @@
         <v>106</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>1470</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>1433</v>
@@ -9669,13 +9658,13 @@
         <v>7011</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>1433</v>
@@ -9704,13 +9693,13 @@
         <v>6010</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -9733,7 +9722,7 @@
         <v>1421</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>1471</v>
@@ -9774,7 +9763,7 @@
         <v>1472</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>1433</v>
@@ -9809,7 +9798,7 @@
         <v>1473</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -9931,7 +9920,7 @@
         <v>1475</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>1467</v>
@@ -9957,13 +9946,13 @@
         <v>1821</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>1476</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -9989,7 +9978,7 @@
         <v>1432</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -10012,7 +10001,7 @@
         <v>16908</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>1477</v>
@@ -10024,7 +10013,7 @@
         <v>1479</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>1702</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -10047,13 +10036,13 @@
         <v>8600</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I137" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -10079,7 +10068,7 @@
         <v>1427</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J138" s="3" t="s">
         <v>1460</v>
@@ -10117,7 +10106,7 @@
         <v>1380</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K139" s="3" t="s">
         <v>1412</v>
@@ -10320,7 +10309,7 @@
         <v>1485</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -10349,7 +10338,7 @@
         <v>1486</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -10442,7 +10431,7 @@
         <v>10</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
       <c r="I150" s="3" t="s">
         <v>1469</v>
@@ -10471,7 +10460,7 @@
         <v>1487</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -10500,7 +10489,7 @@
         <v>1488</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -10552,7 +10541,7 @@
         <v>1455</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J154" s="3" t="s">
         <v>1467</v>
@@ -10581,10 +10570,10 @@
         <v>1416</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K155" s="3" t="s">
         <v>1433</v>
@@ -10613,10 +10602,10 @@
         <v>2512</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -10671,7 +10660,7 @@
         <v>20</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>1469</v>
@@ -10697,13 +10686,13 @@
         <v>939</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H159" s="3" t="s">
         <v>1489</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>1490</v>
@@ -10729,13 +10718,13 @@
         <v>4033</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H160" s="3" t="s">
         <v>1448</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="K160" s="3" t="s">
         <v>1412</v>
@@ -10767,7 +10756,7 @@
         <v>1452</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -10828,7 +10817,7 @@
         <v>1456</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K163" s="3" t="s">
         <v>1433</v>
@@ -10892,10 +10881,10 @@
         <v>1416</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K165" s="3" t="s">
         <v>1433</v>
@@ -10930,7 +10919,7 @@
         <v>1380</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -10956,10 +10945,10 @@
         <v>1416</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K167" s="3" t="s">
         <v>1433</v>
@@ -11023,7 +11012,7 @@
         <v>19525</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>1393</v>
@@ -11052,10 +11041,10 @@
         <v>21127</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -11078,10 +11067,10 @@
         <v>21127</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K171" s="3" t="s">
         <v>1412</v>
@@ -11142,10 +11131,10 @@
         <v>922</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -11171,10 +11160,10 @@
         <v>1475</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K174" s="3" t="s">
         <v>1433</v>
@@ -11206,7 +11195,7 @@
         <v>1460</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -11229,7 +11218,7 @@
         <v>3772</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -11313,10 +11302,10 @@
         <v>1434</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K179" s="3" t="s">
         <v>1433</v>
@@ -11348,7 +11337,7 @@
         <v>1493</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K180" s="3" t="s">
         <v>1433</v>
@@ -11377,13 +11366,13 @@
         <v>4978</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -11406,7 +11395,7 @@
         <v>2839</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="H182" s="3" t="s">
         <v>1494</v>
@@ -11473,7 +11462,7 @@
         <v>1458</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="I184" s="3" t="s">
         <v>1469</v>
@@ -11508,7 +11497,7 @@
         <v>1496</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -11531,7 +11520,7 @@
         <v>102</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="I186" s="3" t="s">
         <v>1445</v>
@@ -11557,13 +11546,13 @@
         <v>932</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -11618,7 +11607,7 @@
         <v>580</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -11711,7 +11700,7 @@
         <v>1171</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="I192" s="3" t="s">
         <v>1393</v>
@@ -11766,10 +11755,10 @@
         <v>13003</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>1498</v>
+        <v>1773</v>
       </c>
       <c r="K194" s="3" t="s">
         <v>1412</v>
@@ -11795,10 +11784,10 @@
         <v>244</v>
       </c>
       <c r="F195" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H195" s="3" t="s">
         <v>1499</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>1500</v>
       </c>
       <c r="I195" s="3" t="s">
         <v>1393</v>
@@ -11824,7 +11813,7 @@
         <v>327</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -11847,7 +11836,7 @@
         <v>18646</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="K197" s="3" t="s">
         <v>1433</v>
@@ -11876,13 +11865,13 @@
         <v>316</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K198" s="3" t="s">
         <v>1433</v>
@@ -11914,10 +11903,10 @@
         <v>1416</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K199" s="3" t="s">
         <v>1412</v>
@@ -11946,10 +11935,10 @@
         <v>21911</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J200" s="3" t="s">
         <v>1388</v>
@@ -11981,7 +11970,7 @@
         <v>17869</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -12007,7 +11996,7 @@
         <v>1456</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J202" s="3" t="s">
         <v>1467</v>
@@ -12039,10 +12028,10 @@
         <v>23441</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -12065,16 +12054,16 @@
         <v>23441</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
       <c r="K204" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -12100,7 +12089,7 @@
         <v>1425</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -12123,19 +12112,19 @@
         <v>16810</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K206" s="3" t="s">
         <v>1412</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -12158,7 +12147,7 @@
         <v>650</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="I207" s="3" t="s">
         <v>1445</v>
@@ -12184,13 +12173,13 @@
         <v>28680</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="I208" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K208" s="3" t="s">
         <v>1433</v>
@@ -12219,10 +12208,10 @@
         <v>5384</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="I209" s="3" t="s">
         <v>1469</v>
@@ -12257,10 +12246,10 @@
         <v>1392</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -12286,10 +12275,10 @@
         <v>1388</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K211" s="3" t="s">
         <v>1433</v>
@@ -12321,7 +12310,7 @@
         <v>1208</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J212" s="3" t="s">
         <v>1467</v>
@@ -12388,7 +12377,7 @@
         <v>1383</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J214" s="3" t="s">
         <v>1467</v>
@@ -12452,13 +12441,13 @@
         <v>417</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -12484,7 +12473,7 @@
         <v>1456</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J217" s="3" t="s">
         <v>1467</v>
@@ -12539,7 +12528,7 @@
         <v>10611</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I219" s="3" t="s">
         <v>1469</v>
@@ -12574,16 +12563,16 @@
         <v>230</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="L220" s="3" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -12606,10 +12595,10 @@
         <v>22106</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I221" s="3" t="s">
         <v>1478</v>
@@ -12635,7 +12624,7 @@
         <v>2815</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>1718</v>
+        <v>1755</v>
       </c>
       <c r="I222" s="3" t="s">
         <v>1469</v>
@@ -12670,10 +12659,10 @@
         <v>1383</v>
       </c>
       <c r="I223" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J223" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K223" s="3" t="s">
         <v>1433</v>
@@ -12731,7 +12720,7 @@
         <v>1437</v>
       </c>
       <c r="I225" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J225" s="3" t="s">
         <v>1388</v>
@@ -12766,7 +12755,7 @@
         <v>1437</v>
       </c>
       <c r="I226" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J226" s="3" t="s">
         <v>1388</v>
@@ -12798,7 +12787,7 @@
         <v>7359</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="I227" s="3" t="s">
         <v>1393</v>
@@ -12827,13 +12816,13 @@
         <v>2405</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="K228" s="3" t="s">
         <v>1433</v>
@@ -12865,7 +12854,7 @@
         <v>1387</v>
       </c>
       <c r="I229" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K229" s="3" t="s">
         <v>1433</v>
@@ -12894,7 +12883,7 @@
         <v>3435</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="I230" s="3" t="s">
         <v>1469</v>
@@ -12920,7 +12909,7 @@
         <v>3012</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>1469</v>
@@ -12987,10 +12976,10 @@
         <v>1291</v>
       </c>
       <c r="I233" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -13013,19 +13002,19 @@
         <v>9660</v>
       </c>
       <c r="H234" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L234" s="3" t="s">
         <v>1514</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>1613</v>
-      </c>
-      <c r="J234" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="K234" s="3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="L234" s="3" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -13048,10 +13037,10 @@
         <v>6101</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="I235" s="3" t="s">
         <v>1469</v>
@@ -13060,7 +13049,7 @@
         <v>1433</v>
       </c>
       <c r="L235" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -13083,13 +13072,13 @@
         <v>1640</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I236" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K236" s="3" t="s">
         <v>1433</v>
@@ -13153,13 +13142,13 @@
         <v>1380</v>
       </c>
       <c r="J238" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K238" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -13185,7 +13174,7 @@
         <v>1456</v>
       </c>
       <c r="I239" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -13234,13 +13223,13 @@
         <v>1403</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H241" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="I241" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K241" s="3" t="s">
         <v>1433</v>
@@ -13269,7 +13258,7 @@
         <v>7466</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>1393</v>
@@ -13295,19 +13284,19 @@
         <v>2000</v>
       </c>
       <c r="H243" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L243" s="3" t="s">
         <v>1520</v>
-      </c>
-      <c r="I243" s="3" t="s">
-        <v>1613</v>
-      </c>
-      <c r="J243" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="K243" s="3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="L243" s="3" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -13333,7 +13322,7 @@
         <v>1432</v>
       </c>
       <c r="I244" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K244" s="3" t="s">
         <v>1433</v>
@@ -13362,19 +13351,19 @@
         <v>1940</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K245" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -13397,10 +13386,10 @@
         <v>12827</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I246" s="3" t="s">
         <v>1478</v>
@@ -13426,10 +13415,10 @@
         <v>8202</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="I247" s="3" t="s">
         <v>1393</v>
@@ -13461,10 +13450,10 @@
         <v>8208</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="I248" s="3" t="s">
         <v>1393</v>
@@ -13496,13 +13485,13 @@
         <v>26099</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I249" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -13528,10 +13517,10 @@
         <v>1384</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -13557,10 +13546,10 @@
         <v>1384</v>
       </c>
       <c r="I251" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -13589,7 +13578,7 @@
         <v>1469</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -13612,19 +13601,19 @@
         <v>11064</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J253" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K253" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L253" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -13650,7 +13639,7 @@
         <v>1460</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -13676,7 +13665,7 @@
         <v>1460</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -13731,10 +13720,10 @@
         <v>2008</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="I257" s="3" t="s">
         <v>1469</v>
@@ -13769,7 +13758,7 @@
         <v>1456</v>
       </c>
       <c r="I258" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J258" s="3" t="s">
         <v>1467</v>
@@ -13804,7 +13793,7 @@
         <v>1452</v>
       </c>
       <c r="I259" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -13827,13 +13816,13 @@
         <v>2424</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H260" s="3" t="s">
         <v>1344</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -13859,10 +13848,10 @@
         <v>1460</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I261" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -13885,7 +13874,7 @@
         <v>1209</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>1393</v>
@@ -13894,7 +13883,7 @@
         <v>1433</v>
       </c>
       <c r="L262" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -13949,7 +13938,7 @@
         <v>1432</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -13972,13 +13961,13 @@
         <v>9804</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I265" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K265" s="3" t="s">
         <v>1433</v>
@@ -14007,13 +13996,13 @@
         <v>4851</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="I266" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -14036,13 +14025,13 @@
         <v>315</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I267" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -14068,7 +14057,7 @@
         <v>1398</v>
       </c>
       <c r="I268" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="J268" s="3" t="s">
         <v>1388</v>
@@ -14094,7 +14083,7 @@
         <v>6319</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H269" s="3" t="s">
         <v>1224</v>
@@ -14129,10 +14118,10 @@
         <v>1011</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="I270" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -14155,16 +14144,16 @@
         <v>613</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="I271" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K271" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L271" s="3" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -14187,13 +14176,13 @@
         <v>1570</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K272" s="3" t="s">
         <v>1433</v>
@@ -14225,7 +14214,7 @@
         <v>1460</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I273" s="3" t="s">
         <v>1478</v>
@@ -14251,13 +14240,13 @@
         <v>15340</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="I274" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K274" s="3" t="s">
         <v>1433</v>
@@ -14286,13 +14275,13 @@
         <v>1315</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H275" s="3" t="s">
         <v>1456</v>
       </c>
       <c r="I275" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -14315,13 +14304,13 @@
         <v>1301</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H276" s="3" t="s">
         <v>1472</v>
       </c>
       <c r="I276" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -14347,7 +14336,7 @@
         <v>1397</v>
       </c>
       <c r="I277" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -14370,7 +14359,7 @@
         <v>17410</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="I278" s="3" t="s">
         <v>1380</v>
@@ -14402,7 +14391,7 @@
         <v>12833</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="I279" s="3" t="s">
         <v>1380</v>
@@ -14431,10 +14420,10 @@
         <v>115</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I280" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -14457,13 +14446,13 @@
         <v>300</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K281" s="3" t="s">
         <v>1433</v>
@@ -14492,13 +14481,13 @@
         <v>716</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -14521,7 +14510,7 @@
         <v>8962</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="I283" s="3" t="s">
         <v>1469</v>
@@ -14550,7 +14539,7 @@
         <v>1456</v>
       </c>
       <c r="I284" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -14573,13 +14562,13 @@
         <v>120</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -14602,7 +14591,7 @@
         <v>1040</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="I286" s="3" t="s">
         <v>1393</v>
@@ -14628,10 +14617,10 @@
         <v>2118</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I287" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -14657,10 +14646,10 @@
         <v>1384</v>
       </c>
       <c r="I288" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -14715,7 +14704,7 @@
         <v>19302</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="I290" s="3" t="s">
         <v>1393</v>
@@ -14738,7 +14727,7 @@
         <v>77</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H291" s="3">
         <v>395</v>
@@ -14773,10 +14762,10 @@
         <v>55</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="I292" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K292" s="3" t="s">
         <v>1433</v>
@@ -14808,13 +14797,13 @@
         <v>1455</v>
       </c>
       <c r="I293" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J293" s="3" t="s">
         <v>1467</v>
       </c>
       <c r="L293" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -14840,7 +14829,7 @@
         <v>1455</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J294" s="3" t="s">
         <v>1467</v>
@@ -14849,7 +14838,7 @@
         <v>1433</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -14872,13 +14861,13 @@
         <v>11013</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I295" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -14901,13 +14890,13 @@
         <v>6620</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H296" s="3" t="s">
         <v>1462</v>
       </c>
       <c r="I296" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K296" s="3" t="s">
         <v>1433</v>
@@ -14936,7 +14925,7 @@
         <v>429</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>1393</v>
@@ -14988,7 +14977,7 @@
         <v>1467</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="I299" s="3" t="s">
         <v>1469</v>
@@ -15040,7 +15029,7 @@
         <v>1421</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K301" s="3" t="s">
         <v>1433</v>
@@ -15075,7 +15064,7 @@
         <v>1488</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -15098,13 +15087,13 @@
         <v>6511</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -15127,13 +15116,13 @@
         <v>3079</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -15156,13 +15145,13 @@
         <v>12525</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I305" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K305" s="3" t="s">
         <v>1433</v>
@@ -15191,13 +15180,13 @@
         <v>12525</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I306" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K306" s="3" t="s">
         <v>1433</v>
@@ -15226,10 +15215,10 @@
         <v>2724</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J307" s="3" t="s">
         <v>1467</v>
@@ -15255,7 +15244,7 @@
         <v>11493</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="I308" s="3" t="s">
         <v>1469</v>
@@ -15281,7 +15270,7 @@
         <v>1110</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="I309" s="3" t="s">
         <v>1469</v>
@@ -15310,13 +15299,13 @@
         <v>1120</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="311" spans="1:12">
@@ -15365,13 +15354,13 @@
         <v>8734</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="I312" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J312" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -15394,7 +15383,7 @@
         <v>5565</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="I313" s="3" t="s">
         <v>1478</v>
@@ -15411,7 +15400,7 @@
         <v>321</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>1300</v>
@@ -15426,13 +15415,13 @@
         <v>230</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K314" s="3" t="s">
         <v>1433</v>
@@ -15464,10 +15453,10 @@
         <v>1467</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="K315" s="3" t="s">
         <v>1433</v>
@@ -15502,7 +15491,7 @@
         <v>1393</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -15525,10 +15514,10 @@
         <v>13985</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J317" s="3" t="s">
         <v>1467</v>
@@ -15554,10 +15543,10 @@
         <v>1350</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -15580,7 +15569,7 @@
         <v>6307</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H319" s="3" t="s">
         <v>1456</v>
@@ -15609,7 +15598,7 @@
         <v>33858</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="K320" s="3" t="s">
         <v>1433</v>
@@ -15670,7 +15659,7 @@
         <v>3715</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="I322" s="3" t="s">
         <v>1469</v>
@@ -15699,7 +15688,7 @@
         <v>1449</v>
       </c>
       <c r="I323" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -15722,13 +15711,13 @@
         <v>20639</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="I324" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="J324" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K324" s="3" t="s">
         <v>1412</v>
@@ -15763,7 +15752,7 @@
         <v>1326</v>
       </c>
       <c r="I325" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K325" s="3" t="s">
         <v>1433</v>
@@ -15792,13 +15781,13 @@
         <v>1739</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="I326" s="3" t="s">
         <v>1445</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -15821,10 +15810,10 @@
         <v>2600</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="I327" s="3" t="s">
         <v>1380</v>
@@ -15856,13 +15845,13 @@
         <v>1762</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="I328" s="3" t="s">
         <v>1445</v>
       </c>
       <c r="J328" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -15943,13 +15932,13 @@
         <v>11834</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H331" s="3" t="s">
         <v>1411</v>
       </c>
       <c r="I331" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="332" spans="1:12">
@@ -15972,7 +15961,7 @@
         <v>26207</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="I332" s="3" t="s">
         <v>1469</v>
@@ -15981,7 +15970,7 @@
         <v>1433</v>
       </c>
       <c r="L332" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="333" spans="1:12">
@@ -16007,10 +15996,10 @@
         <v>1392</v>
       </c>
       <c r="I333" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J333" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -16097,7 +16086,7 @@
         <v>6309</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="I336" s="3" t="s">
         <v>1380</v>
@@ -16184,7 +16173,7 @@
         <v>322</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="I339" s="3" t="s">
         <v>1445</v>
@@ -16216,7 +16205,7 @@
         <v>1469</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K340" s="3" t="s">
         <v>1433</v>
@@ -16251,7 +16240,7 @@
         <v>1380</v>
       </c>
       <c r="J341" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -16274,10 +16263,10 @@
         <v>17730</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="J342" s="3" t="s">
         <v>1467</v>
@@ -16315,7 +16304,7 @@
         <v>1473</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K343" s="3" t="s">
         <v>1433</v>
@@ -16344,13 +16333,13 @@
         <v>8860</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -16373,10 +16362,10 @@
         <v>2810</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="I345" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -16399,7 +16388,7 @@
         <v>8411</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="K346" s="3" t="s">
         <v>1433</v>
@@ -16431,7 +16420,7 @@
         <v>1388</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="I347" s="3" t="s">
         <v>1469</v>
@@ -16440,7 +16429,7 @@
         <v>1433</v>
       </c>
       <c r="L347" s="3" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -16463,13 +16452,13 @@
         <v>1912</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="I348" s="3" t="s">
         <v>1478</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="L348" s="3">
         <v>202</v>
@@ -16495,13 +16484,13 @@
         <v>517</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="I349" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K349" s="3" t="s">
         <v>1433</v>
@@ -16562,7 +16551,7 @@
         <v>1310</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K351" s="3" t="s">
         <v>1433</v>
@@ -16594,7 +16583,7 @@
         <v>1435</v>
       </c>
       <c r="I352" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K352" s="3" t="s">
         <v>1433</v>
@@ -16629,7 +16618,7 @@
         <v>1310</v>
       </c>
       <c r="I353" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -16652,7 +16641,7 @@
         <v>2615</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="I354" s="3" t="s">
         <v>1393</v>
@@ -16684,10 +16673,10 @@
         <v>1451</v>
       </c>
       <c r="I355" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J355" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -16716,7 +16705,7 @@
         <v>1393</v>
       </c>
       <c r="J356" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K356" s="3" t="s">
         <v>1433</v>
@@ -16774,7 +16763,7 @@
         <v>11414</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H358" s="3" t="s">
         <v>1348</v>
@@ -16806,10 +16795,10 @@
         <v>1460</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="I359" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -16835,10 +16824,10 @@
         <v>1385</v>
       </c>
       <c r="I360" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K360" s="3" t="s">
         <v>1433</v>
@@ -16873,7 +16862,7 @@
         <v>1456</v>
       </c>
       <c r="I361" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K361" s="3" t="s">
         <v>1433</v>
@@ -16902,13 +16891,13 @@
         <v>10333</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I362" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="L362" s="3">
         <v>101</v>
@@ -16934,13 +16923,13 @@
         <v>4912</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I363" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="K363" s="3" t="s">
         <v>1433</v>
@@ -16969,10 +16958,10 @@
         <v>350</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I364" s="3" t="s">
         <v>1380</v>
@@ -17007,7 +16996,7 @@
         <v>1432</v>
       </c>
       <c r="I365" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -17030,13 +17019,13 @@
         <v>16219</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>1488</v>
       </c>
       <c r="I366" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K366" s="3" t="s">
         <v>1433</v>
@@ -17065,7 +17054,7 @@
         <v>945</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I367" s="3" t="s">
         <v>1380</v>
@@ -17100,7 +17089,7 @@
         <v>1460</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -17123,13 +17112,13 @@
         <v>9506</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I369" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J369" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -17152,16 +17141,16 @@
         <v>24090</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="K370" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L370" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -17216,13 +17205,13 @@
         <v>1215</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="I372" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K372" s="3" t="s">
         <v>1433</v>
@@ -17283,13 +17272,13 @@
         <v>1123</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="I374" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J374" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -17312,13 +17301,13 @@
         <v>6039</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I375" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -17341,13 +17330,13 @@
         <v>6230</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J376" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -17370,10 +17359,10 @@
         <v>530</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="I377" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K377" s="3" t="s">
         <v>1433</v>
@@ -17402,13 +17391,13 @@
         <v>16204</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="I378" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K378" s="3" t="s">
         <v>1433</v>
@@ -17437,10 +17426,10 @@
         <v>13513</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I379" s="3" t="s">
         <v>1478</v>
@@ -17475,10 +17464,10 @@
         <v>1388</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I380" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -17504,10 +17493,10 @@
         <v>1460</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="I381" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -17533,7 +17522,7 @@
         <v>1452</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K382" s="3" t="s">
         <v>1433</v>
@@ -17565,7 +17554,7 @@
         <v>1452</v>
       </c>
       <c r="I383" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K383" s="3" t="s">
         <v>1433</v>
@@ -17597,10 +17586,10 @@
         <v>1416</v>
       </c>
       <c r="I384" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K384" s="3" t="s">
         <v>1433</v>
@@ -17664,16 +17653,16 @@
         <v>1520</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I386" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J386" s="3" t="s">
         <v>1467</v>
       </c>
       <c r="K386" s="3" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="L386" s="3" t="s">
         <v>1382</v>
@@ -17699,19 +17688,19 @@
         <v>1520</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I387" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J387" s="3" t="s">
         <v>1467</v>
       </c>
       <c r="K387" s="3" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="L387" s="3" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -17734,7 +17723,7 @@
         <v>5675</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="K388" s="3" t="s">
         <v>1433</v>
@@ -17766,10 +17755,10 @@
         <v>1384</v>
       </c>
       <c r="I389" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K389" s="3" t="s">
         <v>1433</v>
@@ -17798,10 +17787,10 @@
         <v>536</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="I390" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K390" s="3" t="s">
         <v>1433</v>
@@ -17833,7 +17822,7 @@
         <v>580</v>
       </c>
       <c r="I391" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K391" s="3" t="s">
         <v>1433</v>
@@ -17865,7 +17854,7 @@
         <v>1425</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -17888,13 +17877,13 @@
         <v>1335</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -17917,10 +17906,10 @@
         <v>51</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="I394" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K394" s="3" t="s">
         <v>1412</v>
@@ -17952,10 +17941,10 @@
         <v>1460</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I395" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K395" s="3" t="s">
         <v>1433</v>
@@ -17984,7 +17973,7 @@
         <v>1209</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="I396" s="3" t="s">
         <v>1393</v>
@@ -17993,7 +17982,7 @@
         <v>1433</v>
       </c>
       <c r="L396" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -18019,7 +18008,7 @@
         <v>1460</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="I397" s="3" t="s">
         <v>1380</v>
@@ -18054,7 +18043,7 @@
         <v>17929</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="K398" s="3" t="s">
         <v>1433</v>
@@ -18118,7 +18107,7 @@
         <v>29393</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="J400" s="3" t="s">
         <v>1460</v>
@@ -18150,10 +18139,10 @@
         <v>2870</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K401" s="3" t="s">
         <v>1479</v>
@@ -18182,10 +18171,10 @@
         <v>1410</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I402" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="403" spans="1:12">
@@ -18208,13 +18197,13 @@
         <v>4316</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -18310,7 +18299,7 @@
         <v>1433</v>
       </c>
       <c r="L406" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -18336,7 +18325,7 @@
         <v>1383</v>
       </c>
       <c r="I407" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J407" s="3" t="s">
         <v>1467</v>
@@ -18368,10 +18357,10 @@
         <v>51</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="I408" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K408" s="3" t="s">
         <v>1412</v>
@@ -18400,7 +18389,7 @@
         <v>476</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="410" spans="1:12">
@@ -18426,10 +18415,10 @@
         <v>1388</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="I410" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K410" s="3" t="s">
         <v>1433</v>
@@ -18461,10 +18450,10 @@
         <v>1460</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="I411" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="412" spans="1:12">
@@ -18490,10 +18479,10 @@
         <v>1460</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="I412" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -18519,7 +18508,7 @@
         <v>1456</v>
       </c>
       <c r="I413" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J413" s="3" t="s">
         <v>1467</v>
@@ -18551,10 +18540,10 @@
         <v>210</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="I414" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K414" s="3" t="s">
         <v>1433</v>
@@ -18618,7 +18607,7 @@
         <v>4950</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="I416" s="3" t="s">
         <v>1469</v>
@@ -18647,7 +18636,7 @@
         <v>1460</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="I417" s="3" t="s">
         <v>1469</v>
@@ -18708,7 +18697,7 @@
         <v>1460</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="I419" s="3" t="s">
         <v>1380</v>
@@ -18734,7 +18723,7 @@
         <v>9506</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I420" s="3" t="s">
         <v>1469</v>
@@ -18763,7 +18752,7 @@
         <v>11522</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I421" s="3" t="s">
         <v>1469</v>
@@ -18792,13 +18781,13 @@
         <v>9326</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="I422" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J422" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K422" s="3" t="s">
         <v>1433</v>
@@ -18827,10 +18816,10 @@
         <v>350</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="I423" s="3" t="s">
         <v>1380</v>
@@ -18862,13 +18851,13 @@
         <v>1212</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="I424" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -18923,10 +18912,10 @@
         <v>1416</v>
       </c>
       <c r="I426" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -18949,13 +18938,13 @@
         <v>391</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="H427" s="3" t="s">
         <v>580</v>
       </c>
       <c r="I427" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K427" s="3" t="s">
         <v>1433</v>
@@ -18990,7 +18979,7 @@
         <v>1432</v>
       </c>
       <c r="I428" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K428" s="3" t="s">
         <v>1433</v>
@@ -19019,10 +19008,10 @@
         <v>21236</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="I429" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J429" s="3" t="s">
         <v>1467</v>
@@ -19054,7 +19043,7 @@
         <v>1456</v>
       </c>
       <c r="I430" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -19077,7 +19066,7 @@
         <v>46</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="I431" s="3" t="s">
         <v>1445</v>
@@ -19106,16 +19095,16 @@
         <v>1392</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K432" s="3" t="s">
         <v>1412</v>
       </c>
       <c r="L432" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -19138,13 +19127,13 @@
         <v>1416</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="I433" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K433" s="3" t="s">
         <v>1433</v>
@@ -19179,7 +19168,7 @@
         <v>1432</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K434" s="3" t="s">
         <v>1433</v>
@@ -19208,13 +19197,13 @@
         <v>4800</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I435" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K435" s="3" t="s">
         <v>1433</v>
@@ -19249,7 +19238,7 @@
         <v>1380</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -19272,7 +19261,7 @@
         <v>5602</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="K437" s="3" t="s">
         <v>1433</v>
@@ -19301,13 +19290,13 @@
         <v>625</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H438" s="3" t="s">
         <v>1489</v>
       </c>
       <c r="I438" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -19330,13 +19319,13 @@
         <v>6733</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="I439" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="J439" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -19359,10 +19348,10 @@
         <v>8040</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="I440" s="3" t="s">
         <v>1469</v>
@@ -19371,10 +19360,10 @@
         <v>1388</v>
       </c>
       <c r="K440" s="3" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="L440" s="3" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -19400,7 +19389,7 @@
         <v>1387</v>
       </c>
       <c r="I441" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J441" s="3" t="s">
         <v>1467</v>
@@ -19432,13 +19421,13 @@
         <v>8296</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="I442" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K442" s="3" t="s">
         <v>1433</v>
@@ -19473,7 +19462,7 @@
         <v>1380</v>
       </c>
       <c r="J443" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -19502,7 +19491,7 @@
         <v>1380</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K444" s="3" t="s">
         <v>1433</v>
@@ -19537,7 +19526,7 @@
         <v>1430</v>
       </c>
       <c r="I445" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="446" spans="1:12">
@@ -19560,13 +19549,13 @@
         <v>4465</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="I446" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J446" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="447" spans="1:12">
@@ -19589,7 +19578,7 @@
         <v>18729</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="I447" s="3" t="s">
         <v>1469</v>
@@ -19621,16 +19610,16 @@
         <v>5200</v>
       </c>
       <c r="H448" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I448" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J448" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="L448" s="3" t="s">
         <v>1600</v>
-      </c>
-      <c r="I448" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="J448" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="L448" s="3" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19711,19 +19700,19 @@
         <v>9451</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="I451" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J451" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K451" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L451" s="3" t="s">
-        <v>1748</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19778,10 +19767,10 @@
         <v>4218</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="I453" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19807,10 +19796,10 @@
         <v>1388</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="I454" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="455" spans="1:12">
@@ -19818,7 +19807,7 @@
         <v>472</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>1296</v>
@@ -19833,10 +19822,10 @@
         <v>22002</v>
       </c>
       <c r="H455" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I455" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J455" s="3" t="s">
         <v>1388</v>
@@ -19874,7 +19863,7 @@
         <v>1425</v>
       </c>
       <c r="I456" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19897,7 +19886,7 @@
         <v>20925</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I457" s="3" t="s">
         <v>1380</v>
@@ -19906,7 +19895,7 @@
         <v>1433</v>
       </c>
       <c r="L457" s="3" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -19929,13 +19918,13 @@
         <v>20112</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="I458" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J458" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K458" s="3" t="s">
         <v>1433</v>
@@ -19964,13 +19953,13 @@
         <v>7115</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H459" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="I459" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K459" s="3" t="s">
         <v>1433</v>
@@ -20034,7 +20023,7 @@
         <v>1380</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K461" s="3" t="s">
         <v>1433</v>
@@ -20066,10 +20055,10 @@
         <v>1460</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -20124,13 +20113,13 @@
         <v>309</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H464" s="3" t="s">
         <v>1432</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -20156,10 +20145,10 @@
         <v>1460</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I465" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K465" s="3" t="s">
         <v>1433</v>
@@ -20188,19 +20177,19 @@
         <v>9301</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H466" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="I466" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K466" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L466" s="3" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -20229,7 +20218,7 @@
         <v>1440</v>
       </c>
       <c r="I467" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K467" s="3" t="s">
         <v>1433</v>
@@ -20322,10 +20311,10 @@
         <v>1388</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="I470" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K470" s="3" t="s">
         <v>1433</v>
@@ -20354,10 +20343,10 @@
         <v>712</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I471" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -20380,7 +20369,7 @@
         <v>4428</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
       <c r="I472" s="3" t="s">
         <v>1469</v>
@@ -20392,35 +20381,35 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="473" spans="1:12" s="4" customFormat="1">
-      <c r="A473" s="4">
+    <row r="473" spans="1:12">
+      <c r="A473" s="3">
         <v>495</v>
       </c>
-      <c r="B473" s="5" t="s">
+      <c r="B473" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="C473" s="5" t="s">
+      <c r="C473" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="D473" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E473" s="5" t="s">
+      <c r="D473" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E473" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F473" s="4">
+      <c r="F473" s="3">
         <v>282332</v>
       </c>
-      <c r="H473" s="4">
+      <c r="H473" s="3">
         <v>101</v>
       </c>
-      <c r="I473" s="4" t="s">
+      <c r="I473" s="3" t="s">
         <v>1393</v>
       </c>
-      <c r="K473" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="L473" s="4">
+      <c r="K473" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L473" s="3">
         <v>2</v>
       </c>
     </row>
@@ -20444,13 +20433,13 @@
         <v>10011</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="I474" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J474" s="3" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20476,7 +20465,7 @@
         <v>1456</v>
       </c>
       <c r="I475" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J475" s="3" t="s">
         <v>1467</v>
@@ -20511,10 +20500,10 @@
         <v>1416</v>
       </c>
       <c r="I476" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J476" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20537,13 +20526,13 @@
         <v>10532</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="I477" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J477" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20566,10 +20555,10 @@
         <v>2</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="I478" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K478" s="3" t="s">
         <v>1433</v>
@@ -20601,7 +20590,7 @@
         <v>1264</v>
       </c>
       <c r="I479" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20630,7 +20619,7 @@
         <v>1399</v>
       </c>
       <c r="I480" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K480" s="3" t="s">
         <v>1433</v>
@@ -20659,7 +20648,7 @@
         <v>16915</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20682,7 +20671,7 @@
         <v>9660</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="I482" s="3" t="s">
         <v>1469</v>
@@ -20746,7 +20735,7 @@
         <v>1455</v>
       </c>
       <c r="I484" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K484" s="3" t="s">
         <v>1433</v>
@@ -20804,13 +20793,13 @@
         <v>17</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="I486" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K486" s="3" t="s">
         <v>1433</v>
@@ -20845,7 +20834,7 @@
         <v>1310</v>
       </c>
       <c r="I487" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20868,7 +20857,7 @@
         <v>1912</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20894,10 +20883,10 @@
         <v>1460</v>
       </c>
       <c r="H489" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="I489" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20926,7 +20915,7 @@
         <v>1456</v>
       </c>
       <c r="I490" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20934,7 +20923,7 @@
         <v>515</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>1212</v>
@@ -20949,13 +20938,13 @@
         <v>9107</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H491" s="3" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="I491" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="K491" s="3" t="s">
         <v>1433</v>
@@ -20984,13 +20973,13 @@
         <v>9107</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H492" s="3" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="I492" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="K492" s="3" t="s">
         <v>1433</v>
@@ -21022,7 +21011,7 @@
         <v>1388</v>
       </c>
       <c r="H493" s="3" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="I493" s="3" t="s">
         <v>1393</v>
@@ -21051,7 +21040,7 @@
         <v>1456</v>
       </c>
       <c r="I494" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J494" s="3" t="s">
         <v>1467</v>
@@ -21077,7 +21066,7 @@
         <v>7157</v>
       </c>
       <c r="H495" s="3" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="I495" s="3" t="s">
         <v>1469</v>
@@ -21112,7 +21101,7 @@
         <v>1456</v>
       </c>
       <c r="I496" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K496" s="3" t="s">
         <v>1433</v>
@@ -21144,10 +21133,10 @@
         <v>1460</v>
       </c>
       <c r="H497" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I497" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -21170,10 +21159,10 @@
         <v>2517</v>
       </c>
       <c r="H498" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I498" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K498" s="3" t="s">
         <v>1412</v>
@@ -21205,7 +21194,7 @@
         <v>1432</v>
       </c>
       <c r="I499" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21231,7 +21220,7 @@
         <v>1432</v>
       </c>
       <c r="I500" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K500" s="3" t="s">
         <v>1433</v>
@@ -21263,7 +21252,7 @@
         <v>1432</v>
       </c>
       <c r="I501" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21286,13 +21275,13 @@
         <v>15915</v>
       </c>
       <c r="H502" s="3" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="I502" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="J502" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21315,13 +21304,13 @@
         <v>19943</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="I503" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="J503" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21344,10 +21333,10 @@
         <v>5815</v>
       </c>
       <c r="H504" s="3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I504" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J504" s="3" t="s">
         <v>1460</v>
@@ -21373,10 +21362,10 @@
         <v>9507</v>
       </c>
       <c r="H505" s="3" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="J505" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="L505" s="3" t="s">
         <v>1399</v>
@@ -21402,7 +21391,7 @@
         <v>100</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="I506" s="3" t="s">
         <v>1469</v>
@@ -21428,10 +21417,10 @@
         <v>9401</v>
       </c>
       <c r="H507" s="3" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="J507" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="K507" s="3" t="s">
         <v>1433</v>
@@ -21489,7 +21478,7 @@
         <v>14637</v>
       </c>
       <c r="H509" s="3" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -21515,7 +21504,7 @@
         <v>1452</v>
       </c>
       <c r="I510" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K510" s="3" t="s">
         <v>1433</v>
@@ -21547,10 +21536,10 @@
         <v>1388</v>
       </c>
       <c r="H511" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="I511" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -21579,7 +21568,7 @@
         <v>1316</v>
       </c>
       <c r="I512" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21587,7 +21576,7 @@
         <v>537</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>1282</v>
@@ -21614,7 +21603,7 @@
         <v>1433</v>
       </c>
       <c r="L513" s="3" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -21637,13 +21626,13 @@
         <v>320</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H514" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I514" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K514" s="3" t="s">
         <v>1433</v>
@@ -21698,10 +21687,10 @@
         <v>492</v>
       </c>
       <c r="H516" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="I516" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -21724,7 +21713,7 @@
         <v>5740</v>
       </c>
       <c r="H517" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="I517" s="3" t="s">
         <v>1469</v>
@@ -21762,7 +21751,7 @@
         <v>1488</v>
       </c>
       <c r="I518" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -21791,7 +21780,7 @@
         <v>1390</v>
       </c>
       <c r="I519" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K519" s="3" t="s">
         <v>1433</v>
@@ -21875,13 +21864,13 @@
         <v>5628</v>
       </c>
       <c r="H522" s="3" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="I522" s="3" t="s">
         <v>1393</v>
       </c>
       <c r="J522" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K522" s="3" t="s">
         <v>1433</v>
@@ -21910,13 +21899,13 @@
         <v>10619</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="I523" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J523" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -21977,7 +21966,7 @@
         <v>1395</v>
       </c>
       <c r="I525" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="J525" s="3" t="s">
         <v>1467</v>
@@ -22009,13 +21998,13 @@
         <v>907</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H526" s="3" t="s">
         <v>1231</v>
       </c>
       <c r="I526" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K526" s="3" t="s">
         <v>1433</v>
@@ -22044,10 +22033,10 @@
         <v>19705</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="I527" s="3" t="s">
         <v>1469</v>
@@ -22076,7 +22065,7 @@
         <v>1460</v>
       </c>
       <c r="H528" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="I528" s="3" t="s">
         <v>1380</v>
@@ -22105,10 +22094,10 @@
         <v>1467</v>
       </c>
       <c r="H529" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="I529" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K529" s="3" t="s">
         <v>1433</v>
@@ -22175,7 +22164,7 @@
         <v>1397</v>
       </c>
       <c r="I531" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22198,10 +22187,10 @@
         <v>484</v>
       </c>
       <c r="H532" s="3" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="I532" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22227,10 +22216,10 @@
         <v>1467</v>
       </c>
       <c r="H533" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="I533" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22256,10 +22245,10 @@
         <v>1475</v>
       </c>
       <c r="I534" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J534" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="535" spans="1:12">
@@ -22282,7 +22271,7 @@
         <v>1714</v>
       </c>
       <c r="H535" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I535" s="3" t="s">
         <v>1469</v>
@@ -22311,10 +22300,10 @@
         <v>1388</v>
       </c>
       <c r="H536" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="I536" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K536" s="3" t="s">
         <v>1433</v>
@@ -22346,7 +22335,7 @@
         <v>1383</v>
       </c>
       <c r="I537" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J537" s="3" t="s">
         <v>1467</v>
@@ -22372,7 +22361,7 @@
         <v>11821</v>
       </c>
       <c r="H538" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I538" s="3" t="s">
         <v>1469</v>
@@ -22401,7 +22390,7 @@
         <v>21802</v>
       </c>
       <c r="H539" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="I539" s="3" t="s">
         <v>1393</v>
@@ -22433,10 +22422,10 @@
         <v>34</v>
       </c>
       <c r="F540" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H540" s="3" t="s">
         <v>1624</v>
-      </c>
-      <c r="H540" s="3" t="s">
-        <v>1625</v>
       </c>
       <c r="I540" s="3" t="s">
         <v>1380</v>
@@ -22462,7 +22451,7 @@
         <v>20291</v>
       </c>
       <c r="H541" s="3" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="K541" s="3" t="s">
         <v>1412</v>
@@ -22503,7 +22492,7 @@
         <v>1412</v>
       </c>
       <c r="L542" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="543" spans="1:12">
@@ -22529,13 +22518,13 @@
         <v>1475</v>
       </c>
       <c r="I543" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J543" s="3" t="s">
         <v>1467</v>
       </c>
       <c r="L543" s="3" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="544" spans="1:12">
@@ -22561,7 +22550,7 @@
         <v>1475</v>
       </c>
       <c r="I544" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J544" s="3" t="s">
         <v>1467</v>
@@ -22590,10 +22579,10 @@
         <v>1460</v>
       </c>
       <c r="H545" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I545" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K545" s="3" t="s">
         <v>1433</v>
@@ -22625,7 +22614,7 @@
         <v>1467</v>
       </c>
       <c r="H546" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="I546" s="3" t="s">
         <v>1469</v>
@@ -22651,10 +22640,10 @@
         <v>8420</v>
       </c>
       <c r="H547" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I547" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="K547" s="3" t="s">
         <v>1433</v>
@@ -22689,7 +22678,7 @@
         <v>1432</v>
       </c>
       <c r="I548" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K548" s="3" t="s">
         <v>1412</v>
@@ -22721,10 +22710,10 @@
         <v>1475</v>
       </c>
       <c r="I549" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J549" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K549" s="3" t="s">
         <v>1433</v>
@@ -22756,10 +22745,10 @@
         <v>1475</v>
       </c>
       <c r="I550" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J550" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K550" s="3" t="s">
         <v>1433</v>
@@ -22788,7 +22777,7 @@
         <v>50</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="I551" s="3" t="s">
         <v>1469</v>
@@ -22814,7 +22803,7 @@
         <v>5736</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I552" s="3" t="s">
         <v>1469</v>
@@ -22840,13 +22829,13 @@
         <v>1210</v>
       </c>
       <c r="G553" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H553" s="3" t="s">
         <v>1231</v>
       </c>
       <c r="I553" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K553" s="3" t="s">
         <v>1433</v>
@@ -22875,10 +22864,10 @@
         <v>449</v>
       </c>
       <c r="H554" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="I554" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J554" s="3" t="s">
         <v>1467</v>
@@ -22913,10 +22902,10 @@
         <v>1467</v>
       </c>
       <c r="H555" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I555" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="556" spans="1:12">
@@ -22942,7 +22931,7 @@
         <v>1421</v>
       </c>
       <c r="I556" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K556" s="3" t="s">
         <v>1433</v>
@@ -22971,19 +22960,19 @@
         <v>330</v>
       </c>
       <c r="G557" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H557" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="I557" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K557" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L557" s="3" t="s">
-        <v>1692</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="558" spans="1:12">
@@ -23006,13 +22995,13 @@
         <v>212</v>
       </c>
       <c r="G558" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H558" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I558" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K558" s="3" t="s">
         <v>1433</v>
@@ -23041,10 +23030,10 @@
         <v>6018</v>
       </c>
       <c r="G559" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H559" s="3" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="I559" s="3" t="s">
         <v>1469</v>
@@ -23076,10 +23065,10 @@
         <v>6018</v>
       </c>
       <c r="G560" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H560" s="3" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="I560" s="3" t="s">
         <v>1469</v>
@@ -23143,7 +23132,7 @@
         <v>1383</v>
       </c>
       <c r="I562" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="563" spans="1:12">
@@ -23166,10 +23155,10 @@
         <v>1840</v>
       </c>
       <c r="H563" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="I563" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="564" spans="1:12">
@@ -23192,13 +23181,13 @@
         <v>1510</v>
       </c>
       <c r="G564" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H564" s="3" t="s">
         <v>1231</v>
       </c>
       <c r="I564" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="565" spans="1:12">
@@ -23206,7 +23195,7 @@
         <v>590</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>1327</v>
@@ -23224,7 +23213,7 @@
         <v>1456</v>
       </c>
       <c r="I565" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J565" s="3" t="s">
         <v>1467</v>
@@ -23256,13 +23245,13 @@
         <v>9574</v>
       </c>
       <c r="H566" s="3" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="I566" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J566" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="K566" s="3" t="s">
         <v>1433</v>
@@ -23291,13 +23280,13 @@
         <v>4336</v>
       </c>
       <c r="H567" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I567" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J567" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K567" s="3" t="s">
         <v>1433</v>
@@ -23326,7 +23315,7 @@
         <v>909</v>
       </c>
       <c r="H568" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I568" s="3" t="s">
         <v>1469</v>
@@ -23352,13 +23341,13 @@
         <v>5626</v>
       </c>
       <c r="H569" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I569" s="3" t="s">
         <v>1478</v>
       </c>
       <c r="J569" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K569" s="3" t="s">
         <v>1433</v>
@@ -23387,10 +23376,10 @@
         <v>18026</v>
       </c>
       <c r="H570" s="3" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="J570" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K570" s="3" t="s">
         <v>1433</v>
@@ -23425,13 +23414,13 @@
         <v>1390</v>
       </c>
       <c r="I571" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K571" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L571" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="572" spans="1:12">
@@ -23454,13 +23443,13 @@
         <v>3411</v>
       </c>
       <c r="G572" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H572" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="I572" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="L572" s="3" t="s">
         <v>1382</v>
@@ -23489,10 +23478,10 @@
         <v>1460</v>
       </c>
       <c r="H573" s="3" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
       <c r="I573" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="L573" s="3" t="s">
         <v>1382</v>
@@ -23518,19 +23507,19 @@
         <v>1817</v>
       </c>
       <c r="H574" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="I574" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J574" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K574" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L574" s="3" t="s">
-        <v>1765</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="575" spans="1:12">
@@ -23553,10 +23542,10 @@
         <v>2119</v>
       </c>
       <c r="H575" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="I575" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="576" spans="1:12">
@@ -23582,7 +23571,7 @@
         <v>1455</v>
       </c>
       <c r="I576" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J576" s="3" t="s">
         <v>1467</v>
@@ -23611,7 +23600,7 @@
         <v>580</v>
       </c>
       <c r="I577" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="578" spans="1:12">
@@ -23634,10 +23623,10 @@
         <v>23632</v>
       </c>
       <c r="G578" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H578" s="3" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="579" spans="1:12">
@@ -23663,7 +23652,7 @@
         <v>1432</v>
       </c>
       <c r="I579" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="580" spans="1:12">
@@ -23689,7 +23678,7 @@
         <v>1462</v>
       </c>
       <c r="I580" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="581" spans="1:12">
@@ -23712,13 +23701,13 @@
         <v>5300</v>
       </c>
       <c r="H581" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I581" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J581" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="K581" s="3" t="s">
         <v>1433</v>
@@ -23747,10 +23736,10 @@
         <v>2530</v>
       </c>
       <c r="H582" s="3" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
       <c r="I582" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K582" s="3" t="s">
         <v>1433</v>
@@ -23779,13 +23768,13 @@
         <v>14303</v>
       </c>
       <c r="H583" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="I583" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J583" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="584" spans="1:12">
@@ -23811,10 +23800,10 @@
         <v>1382</v>
       </c>
       <c r="I584" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J584" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="K584" s="3" t="s">
         <v>1433</v>
@@ -23846,7 +23835,7 @@
         <v>1467</v>
       </c>
       <c r="H585" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I585" s="3" t="s">
         <v>1469</v>
@@ -23878,13 +23867,13 @@
         <v>9626</v>
       </c>
       <c r="H586" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I586" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J586" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="587" spans="1:12">
@@ -23933,13 +23922,13 @@
         <v>8606</v>
       </c>
       <c r="H588" s="3" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="I588" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="J588" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="589" spans="1:12">
@@ -23962,7 +23951,7 @@
         <v>2294</v>
       </c>
       <c r="H589" s="3" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="590" spans="1:12">
@@ -23985,7 +23974,7 @@
         <v>25171</v>
       </c>
       <c r="H590" s="3" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="L590" s="3">
         <v>2</v>
@@ -24017,13 +24006,13 @@
         <v>1390</v>
       </c>
       <c r="I591" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K591" s="3" t="s">
         <v>1433</v>
       </c>
       <c r="L591" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="592" spans="1:12">
@@ -24046,7 +24035,7 @@
         <v>10825</v>
       </c>
       <c r="H592" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="I592" s="3" t="s">
         <v>1380</v>
@@ -24075,10 +24064,10 @@
         <v>6323</v>
       </c>
       <c r="G593" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H593" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="I593" s="3" t="s">
         <v>1380</v>
@@ -24139,7 +24128,7 @@
         <v>837</v>
       </c>
       <c r="H595" s="3" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="I595" s="3" t="s">
         <v>1469</v>
@@ -24171,7 +24160,7 @@
         <v>1467</v>
       </c>
       <c r="H596" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="I596" s="3" t="s">
         <v>1469</v>
@@ -24209,7 +24198,7 @@
         <v>1455</v>
       </c>
       <c r="I597" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K597" s="3" t="s">
         <v>1433</v>
@@ -24238,13 +24227,13 @@
         <v>13217</v>
       </c>
       <c r="H598" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="I598" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J598" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="K598" s="3" t="s">
         <v>1479</v>
@@ -24273,7 +24262,7 @@
         <v>3863</v>
       </c>
       <c r="H599" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="I599" s="3" t="s">
         <v>1469</v>
@@ -24302,10 +24291,10 @@
         <v>1460</v>
       </c>
       <c r="H600" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I600" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="601" spans="1:12">
@@ -24328,13 +24317,13 @@
         <v>3845</v>
       </c>
       <c r="H601" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="I601" s="3" t="s">
         <v>1380</v>
       </c>
       <c r="J601" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="602" spans="1:12">
@@ -24360,7 +24349,7 @@
         <v>1452</v>
       </c>
       <c r="I602" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="603" spans="1:12">
@@ -24383,13 +24372,13 @@
         <v>5917</v>
       </c>
       <c r="G603" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H603" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="I603" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="K603" s="3" t="s">
         <v>1433</v>
@@ -24418,7 +24407,7 @@
         <v>218</v>
       </c>
       <c r="G604" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H604" s="3" t="s">
         <v>1436</v>
@@ -24456,7 +24445,7 @@
         <v>1467</v>
       </c>
       <c r="H605" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="606" spans="1:12">
@@ -24485,7 +24474,7 @@
         <v>1430</v>
       </c>
       <c r="I606" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="607" spans="1:12">
@@ -24511,7 +24500,7 @@
         <v>1392</v>
       </c>
       <c r="I607" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J607" s="3" t="s">
         <v>1460</v>
@@ -24522,7 +24511,7 @@
         <v>635</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>1201</v>
@@ -24540,10 +24529,10 @@
         <v>1392</v>
       </c>
       <c r="I608" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J608" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K608" s="3" t="s">
         <v>1433</v>
@@ -24575,10 +24564,10 @@
         <v>1467</v>
       </c>
       <c r="H609" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="I609" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="610" spans="1:12">
@@ -24601,7 +24590,7 @@
         <v>50</v>
       </c>
       <c r="H610" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="I610" s="3" t="s">
         <v>1478</v>
@@ -24636,7 +24625,7 @@
         <v>1456</v>
       </c>
       <c r="I611" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J611" s="3" t="s">
         <v>1467</v>
@@ -24668,13 +24657,13 @@
         <v>1467</v>
       </c>
       <c r="H612" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="I612" s="3" t="s">
         <v>1469</v>
       </c>
       <c r="L612" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="613" spans="1:12">
@@ -24697,7 +24686,7 @@
         <v>3708</v>
       </c>
       <c r="H613" s="3" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="I613" s="3" t="s">
         <v>1393</v>
@@ -24723,13 +24712,13 @@
         <v>1520</v>
       </c>
       <c r="H614" s="3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I614" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J614" s="3" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="K614" s="3" t="s">
         <v>1433</v>
@@ -24764,7 +24753,7 @@
         <v>1432</v>
       </c>
       <c r="I615" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="616" spans="1:12">
@@ -24790,10 +24779,10 @@
         <v>1467</v>
       </c>
       <c r="H616" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I616" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="617" spans="1:12">
@@ -24816,10 +24805,10 @@
         <v>728</v>
       </c>
       <c r="H617" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="I617" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="618" spans="1:12">
@@ -24842,13 +24831,13 @@
         <v>5300</v>
       </c>
       <c r="H618" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="I618" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J618" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="K618" s="3" t="s">
         <v>1433</v>
@@ -24877,13 +24866,13 @@
         <v>321</v>
       </c>
       <c r="G619" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H619" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="I619" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="620" spans="1:12">
@@ -24906,7 +24895,7 @@
         <v>591</v>
       </c>
       <c r="H620" s="3" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="K620" s="3" t="s">
         <v>1433</v>
@@ -24935,7 +24924,7 @@
         <v>3120</v>
       </c>
       <c r="H621" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I621" s="3" t="s">
         <v>1469</v>
@@ -24964,10 +24953,10 @@
         <v>1388</v>
       </c>
       <c r="H622" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="I622" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K622" s="3" t="s">
         <v>1433</v>
@@ -24996,10 +24985,10 @@
         <v>2415</v>
       </c>
       <c r="H623" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="I623" s="3" t="s">
         <v>1659</v>
-      </c>
-      <c r="I623" s="3" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="624" spans="1:12">
@@ -25025,7 +25014,7 @@
         <v>1388</v>
       </c>
       <c r="H624" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="I624" s="3" t="s">
         <v>1478</v>
@@ -25051,13 +25040,13 @@
         <v>1340</v>
       </c>
       <c r="G625" s="3" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H625" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I625" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="K625" s="3" t="s">
         <v>1433</v>
@@ -25086,16 +25075,16 @@
         <v>6501</v>
       </c>
       <c r="H626" s="3" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="I626" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="K626" s="3" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="L626" s="3" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="627" spans="1:12">
@@ -25118,10 +25107,10 @@
         <v>1401</v>
       </c>
       <c r="H627" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I627" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="628" spans="1:12">
@@ -25144,7 +25133,7 @@
         <v>20291</v>
       </c>
       <c r="H628" s="3" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="K628" s="3" t="s">
         <v>1412</v>
@@ -25173,7 +25162,7 @@
         <v>4503</v>
       </c>
       <c r="H629" s="3" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="I629" s="3" t="s">
         <v>1393</v>
@@ -25208,7 +25197,7 @@
         <v>1467</v>
       </c>
       <c r="H630" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="I630" s="3" t="s">
         <v>1469</v>
@@ -25240,7 +25229,7 @@
         <v>1860</v>
       </c>
       <c r="H631" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I631" s="3" t="s">
         <v>1469</v>
@@ -25295,10 +25284,10 @@
         <v>1460</v>
       </c>
       <c r="H633" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I633" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="634" spans="1:12">
@@ -25324,7 +25313,7 @@
         <v>1475</v>
       </c>
       <c r="I634" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J634" s="3" t="s">
         <v>1467</v>
@@ -25350,10 +25339,10 @@
         <v>1606</v>
       </c>
       <c r="H635" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I635" s="3" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="636" spans="1:12">
@@ -25376,13 +25365,13 @@
         <v>20917</v>
       </c>
       <c r="G636" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H636" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="I636" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K636" s="3" t="s">
         <v>1433</v>
@@ -25414,10 +25403,10 @@
         <v>1460</v>
       </c>
       <c r="H637" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I637" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="638" spans="1:12">
@@ -25475,7 +25464,7 @@
         <v>1425</v>
       </c>
       <c r="I639" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="L639" s="3" t="s">
         <v>1399</v>
@@ -25501,13 +25490,13 @@
         <v>1628</v>
       </c>
       <c r="H640" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I640" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J640" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="L640" s="3" t="s">
         <v>1382</v>
@@ -25536,13 +25525,13 @@
         <v>1388</v>
       </c>
       <c r="H641" s="3" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="I641" s="3" t="s">
         <v>1483</v>
       </c>
       <c r="J641" s="3" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="L641" s="3" t="s">
         <v>1399</v>
@@ -25571,10 +25560,10 @@
         <v>1460</v>
       </c>
       <c r="H642" s="3" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="I642" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K642" s="3" t="s">
         <v>1412</v>
